--- a/buyer_order.xlsx
+++ b/buyer_order.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>User should be select add buttion</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jooB2U44XJkzH4abJg8k2hWl0TIv8fRY/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -467,42 +470,6 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -533,6 +500,42 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,8 +762,8 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -775,24 +778,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="21">
+      <c r="E1" s="26"/>
+      <c r="F1" s="9">
         <v>44595</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="11"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="1">
         <v>10</v>
       </c>
@@ -801,402 +804,405 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21">
+      <c r="E2" s="27"/>
+      <c r="F2" s="9">
         <v>44595</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="31"/>
       <c r="I2" s="1">
         <v>9</v>
       </c>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="1">
         <v>1</v>
       </c>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="1"/>
       <c r="J4" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="11">
         <v>5</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="11">
         <v>5</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="21">
         <v>44595</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="21">
         <v>44595</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="32" t="s">
+      <c r="I15" s="20" t="s">
         <v>8</v>
       </c>
+      <c r="J15" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="11">
         <v>2022</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="11">
         <v>2022</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="29"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="17"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="5"/>
@@ -1258,6 +1264,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="A1:B1"/>
@@ -1274,12 +1286,6 @@
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="H7:H9"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/buyer_order.xlsx
+++ b/buyer_order.xlsx
@@ -454,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -470,7 +470,6 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -501,6 +500,24 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -519,22 +536,13 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -762,8 +770,8 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -778,24 +786,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="9">
+      <c r="E1" s="31"/>
+      <c r="F1" s="34">
         <v>44595</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="30"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="1">
         <v>10</v>
       </c>
@@ -804,300 +812,300 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="9">
+      <c r="E2" s="32"/>
+      <c r="F2" s="33">
         <v>44595</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="31"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="1">
         <v>9</v>
       </c>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="32"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="1">
         <v>1</v>
       </c>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="22"/>
+      <c r="F4" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="33"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="1"/>
       <c r="J4" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="27" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>5</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>5</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <v>44595</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="20">
         <v>44595</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="19" t="s">
         <v>8</v>
       </c>
       <c r="J15" t="s">
@@ -1105,104 +1113,104 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>2022</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>2022</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="17"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="5"/>
@@ -1264,12 +1272,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="A1:B1"/>
@@ -1286,6 +1288,12 @@
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="H7:H9"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
